--- a/files/LISTA GENERAL SAMCOR.xlsx
+++ b/files/LISTA GENERAL SAMCOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastián\Desktop\BuscadorPorMedidaJS\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C5668B-35AC-4228-8B65-D95558E9C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD7F136-A80F-4C9F-BDC3-FE44A1B09DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0BC577A-BEC2-6844-85B2-8E34E00BA5F1}"/>
   </bookViews>
@@ -2018,9 +2018,6 @@
     <t>X2</t>
   </si>
   <si>
-    <t>X 4</t>
-  </si>
-  <si>
     <t>1557013ROADH11</t>
   </si>
   <si>
@@ -2091,6 +2088,9 @@
   </si>
   <si>
     <t>LT AT</t>
+  </si>
+  <si>
+    <t>X4</t>
   </si>
 </sst>
 </file>
@@ -2208,16 +2208,2004 @@
   </cellStyles>
   <dxfs count="208">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2336,2004 +4324,16 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4349,16 +4349,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}" name="Tabla1" displayName="Tabla1" ref="A1:G312" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}" name="Tabla1" displayName="Tabla1" ref="A1:G312" totalsRowShown="0" headerRowDxfId="207" tableBorderDxfId="206">
   <autoFilter ref="A1:G312" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EA449B72-83DE-46B5-B319-FA996C850BC5}" name="SKU"/>
-    <tableColumn id="2" xr3:uid="{6A85AE4B-6CA9-44A6-A2EA-D3CB8E43F047}" name="MEDIDA" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B2478357-CBDB-4907-BE09-EF9288EA5754}" name="MARCA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{EA9BFBC1-3E5F-4162-823E-C560CE9B7B11}" name="MODELO" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{EF939F09-D156-4046-BABE-06D6CBB9A833}" name="UNIDAD" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{48B81004-6841-4974-8E3F-19C72FAEA1B2}" name="X2" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{E8025809-8770-4BD7-9F43-11BC7AFFA9B2}" name="X 4" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6A85AE4B-6CA9-44A6-A2EA-D3CB8E43F047}" name="MEDIDA" dataDxfId="205"/>
+    <tableColumn id="3" xr3:uid="{B2478357-CBDB-4907-BE09-EF9288EA5754}" name="MARCA" dataDxfId="204"/>
+    <tableColumn id="4" xr3:uid="{EA9BFBC1-3E5F-4162-823E-C560CE9B7B11}" name="MODELO" dataDxfId="203"/>
+    <tableColumn id="5" xr3:uid="{EF939F09-D156-4046-BABE-06D6CBB9A833}" name="UNIDAD" dataDxfId="202"/>
+    <tableColumn id="6" xr3:uid="{48B81004-6841-4974-8E3F-19C72FAEA1B2}" name="X2" dataDxfId="201"/>
+    <tableColumn id="7" xr3:uid="{E8025809-8770-4BD7-9F43-11BC7AFFA9B2}" name="X4" dataDxfId="200"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4684,7 +4684,7 @@
   <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4718,7 +4718,7 @@
         <v>659</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4910,7 +4910,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>28</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>43</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>88</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>95</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>169</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>190</v>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>215</v>
@@ -6607,13 +6607,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="3">
@@ -6941,7 +6941,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>256</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>256</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>324</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>332</v>
@@ -7857,7 +7857,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>341</v>
@@ -7939,10 +7939,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
@@ -8815,10 +8815,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>80</v>
@@ -9105,10 +9105,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>2</v>
@@ -9633,10 +9633,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>2</v>
@@ -10100,7 +10100,7 @@
         <v>39</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E262" s="3">
         <v>125000</v>
@@ -11134,604 +11134,604 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="207" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="199" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="206" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="198" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="205" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="197" priority="197"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="204" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="196" priority="196"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A8">
-    <cfRule type="duplicateValues" dxfId="203" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="195" priority="195"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="202" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="194" priority="194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A11">
-    <cfRule type="duplicateValues" dxfId="201" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="193" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="duplicateValues" dxfId="200" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="192" priority="192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="199" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="191" priority="191"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="198" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="190" priority="190"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="197" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="189" priority="189"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="196" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="188" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="195" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="187" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="194" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="186" priority="187"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="193" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="186"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="192" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="184" priority="185"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="191" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="183" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="190" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="182" priority="184"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="189" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="181" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="188" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="180" priority="182"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27 A29">
-    <cfRule type="duplicateValues" dxfId="187" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="179" priority="181"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="186" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="185" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="177" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="184" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="179"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="183" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="175" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:A34">
-    <cfRule type="duplicateValues" dxfId="182" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="178"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="181" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="173" priority="177"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="180" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="172" priority="176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="179" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="171" priority="175"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="178" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="174"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="177" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="169" priority="173"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="176" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="175" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="174" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="173" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="171"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="172" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="170"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="171" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="169"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="170" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="168"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="169" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="167"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="168" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="167" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="166" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="duplicateValues" dxfId="165" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="165"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56">
-    <cfRule type="duplicateValues" dxfId="164" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="163" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="162" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="162"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="161" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="duplicateValues" dxfId="160" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="161"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="159" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="159"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="158" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="157" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="156" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="155" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="156"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:A69">
-    <cfRule type="duplicateValues" dxfId="154" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="155"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="153" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="153"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="152" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="151" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="150" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="151"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="149" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="148" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="150"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="147" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="146" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="145" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="144" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="143" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" dxfId="142" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="145"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" dxfId="141" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="144"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" dxfId="140" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="143"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" dxfId="139" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="142"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="138" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="141"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="137" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="140"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" dxfId="136" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="139"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103">
-    <cfRule type="duplicateValues" dxfId="135" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" dxfId="134" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107">
-    <cfRule type="duplicateValues" dxfId="133" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="132" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="137"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:A111">
-    <cfRule type="duplicateValues" dxfId="131" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="130" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="135"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" dxfId="129" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" dxfId="128" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="127" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" dxfId="126" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="131"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" dxfId="125" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="130"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" dxfId="124" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" dxfId="123" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" dxfId="122" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" dxfId="121" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="126"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="120" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128">
-    <cfRule type="duplicateValues" dxfId="119" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" dxfId="118" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A130">
-    <cfRule type="duplicateValues" dxfId="117" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="116" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="115" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="duplicateValues" dxfId="114" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134">
-    <cfRule type="duplicateValues" dxfId="113" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" dxfId="112" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A141">
-    <cfRule type="duplicateValues" dxfId="111" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A142">
-    <cfRule type="duplicateValues" dxfId="110" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143">
-    <cfRule type="duplicateValues" dxfId="109" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="108" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146">
-    <cfRule type="duplicateValues" dxfId="107" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147">
-    <cfRule type="duplicateValues" dxfId="106" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148:A149">
-    <cfRule type="duplicateValues" dxfId="105" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="104" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" dxfId="103" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A153:A154">
-    <cfRule type="duplicateValues" dxfId="102" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155">
-    <cfRule type="duplicateValues" dxfId="101" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A157:A158">
-    <cfRule type="duplicateValues" dxfId="100" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159">
-    <cfRule type="duplicateValues" dxfId="99" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A160">
-    <cfRule type="duplicateValues" dxfId="98" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" dxfId="97" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A163">
-    <cfRule type="duplicateValues" dxfId="96" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A164">
-    <cfRule type="duplicateValues" dxfId="95" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A165">
-    <cfRule type="duplicateValues" dxfId="94" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170">
-    <cfRule type="duplicateValues" dxfId="93" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A171">
-    <cfRule type="duplicateValues" dxfId="92" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A172">
-    <cfRule type="duplicateValues" dxfId="91" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A173:A174">
-    <cfRule type="duplicateValues" dxfId="90" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175">
-    <cfRule type="duplicateValues" dxfId="89" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A176">
-    <cfRule type="duplicateValues" dxfId="88" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177">
-    <cfRule type="duplicateValues" dxfId="87" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A178">
-    <cfRule type="duplicateValues" dxfId="86" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179">
-    <cfRule type="duplicateValues" dxfId="85" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A180:A181">
-    <cfRule type="duplicateValues" dxfId="84" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="duplicateValues" dxfId="83" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185">
-    <cfRule type="duplicateValues" dxfId="82" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A186">
-    <cfRule type="duplicateValues" dxfId="81" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="80" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191">
-    <cfRule type="duplicateValues" dxfId="79" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A193">
-    <cfRule type="duplicateValues" dxfId="78" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194:A196">
-    <cfRule type="duplicateValues" dxfId="77" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A198">
-    <cfRule type="duplicateValues" dxfId="76" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A199">
-    <cfRule type="duplicateValues" dxfId="75" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201">
-    <cfRule type="duplicateValues" dxfId="74" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A202">
-    <cfRule type="duplicateValues" dxfId="73" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204">
-    <cfRule type="duplicateValues" dxfId="72" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A206">
-    <cfRule type="duplicateValues" dxfId="71" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207">
-    <cfRule type="duplicateValues" dxfId="70" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A208">
-    <cfRule type="duplicateValues" dxfId="69" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A213:A214">
-    <cfRule type="duplicateValues" dxfId="68" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="duplicateValues" dxfId="67" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A216">
-    <cfRule type="duplicateValues" dxfId="66" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A217">
-    <cfRule type="duplicateValues" dxfId="65" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A222">
-    <cfRule type="duplicateValues" dxfId="64" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A223">
-    <cfRule type="duplicateValues" dxfId="63" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A224">
-    <cfRule type="duplicateValues" dxfId="62" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225">
-    <cfRule type="duplicateValues" dxfId="61" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A229">
-    <cfRule type="duplicateValues" dxfId="60" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A230">
-    <cfRule type="duplicateValues" dxfId="59" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A231">
-    <cfRule type="duplicateValues" dxfId="58" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A232">
-    <cfRule type="duplicateValues" dxfId="57" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A233">
-    <cfRule type="duplicateValues" dxfId="56" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235">
-    <cfRule type="duplicateValues" dxfId="55" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A236">
-    <cfRule type="duplicateValues" dxfId="54" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:A240">
-    <cfRule type="duplicateValues" dxfId="53" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" dxfId="52" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A242">
-    <cfRule type="duplicateValues" dxfId="51" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A243">
-    <cfRule type="duplicateValues" dxfId="50" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A244">
-    <cfRule type="duplicateValues" dxfId="49" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A245">
-    <cfRule type="duplicateValues" dxfId="48" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A246">
-    <cfRule type="duplicateValues" dxfId="47" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A247">
-    <cfRule type="duplicateValues" dxfId="46" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A252">
-    <cfRule type="duplicateValues" dxfId="45" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A253">
-    <cfRule type="duplicateValues" dxfId="44" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A254">
-    <cfRule type="duplicateValues" dxfId="43" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255">
-    <cfRule type="duplicateValues" dxfId="42" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A257">
-    <cfRule type="duplicateValues" dxfId="41" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A258">
-    <cfRule type="duplicateValues" dxfId="40" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:A262">
-    <cfRule type="duplicateValues" dxfId="39" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263">
-    <cfRule type="duplicateValues" dxfId="38" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A265:A266">
-    <cfRule type="duplicateValues" dxfId="37" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" dxfId="36" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269">
-    <cfRule type="duplicateValues" dxfId="35" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A271">
-    <cfRule type="duplicateValues" dxfId="33" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" dxfId="32" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" dxfId="31" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" dxfId="30" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" dxfId="29" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277">
-    <cfRule type="duplicateValues" dxfId="28" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A278">
-    <cfRule type="duplicateValues" dxfId="27" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A279">
-    <cfRule type="duplicateValues" dxfId="26" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A281">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A283">
-    <cfRule type="duplicateValues" dxfId="24" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284">
-    <cfRule type="duplicateValues" dxfId="23" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A285">
-    <cfRule type="duplicateValues" dxfId="22" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A286">
-    <cfRule type="duplicateValues" dxfId="21" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A287">
-    <cfRule type="duplicateValues" dxfId="20" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A290">
-    <cfRule type="duplicateValues" dxfId="19" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A293">
-    <cfRule type="duplicateValues" dxfId="18" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A294">
-    <cfRule type="duplicateValues" dxfId="17" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A295">
-    <cfRule type="duplicateValues" dxfId="16" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A296">
-    <cfRule type="duplicateValues" dxfId="15" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A297">
-    <cfRule type="duplicateValues" dxfId="14" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A298">
-    <cfRule type="duplicateValues" dxfId="13" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="duplicateValues" dxfId="12" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A300">
-    <cfRule type="duplicateValues" dxfId="11" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A301">
-    <cfRule type="duplicateValues" dxfId="10" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="duplicateValues" dxfId="9" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A303:A304">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
